--- a/sample_excel/2024.xlsx
+++ b/sample_excel/2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -49,13 +49,16 @@
   <si>
     <t>r</t>
   </si>
+  <si>
+    <t>check_time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
@@ -178,12 +181,6 @@
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <scheme val="minor"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <i/>
@@ -424,7 +421,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -433,7 +429,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -442,7 +437,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -451,7 +445,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -466,7 +459,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -481,7 +473,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -496,7 +487,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -505,7 +495,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -516,7 +505,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -595,10 +583,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -607,10 +595,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -619,10 +607,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -631,10 +619,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -643,10 +631,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -655,16 +643,16 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,15 +1001,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1033,6 +1021,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1044,15 +1035,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1064,6 +1055,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1075,15 +1069,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1095,6 +1089,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1106,15 +1103,15 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1126,6 +1123,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1137,15 +1137,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1157,6 +1157,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1168,15 +1171,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1188,6 +1191,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1199,15 +1205,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1219,6 +1225,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1231,15 +1240,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1251,6 +1260,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1262,15 +1274,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1282,6 +1294,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1293,15 +1308,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1313,6 +1328,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1324,15 +1342,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1344,6 +1362,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1355,15 +1376,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.200000" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.500000">
+    <row r="1" spans="1:5" ht="16.500000">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1375,6 +1396,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
